--- a/Results/Calculation/plsa-partial-ner-glove-money.xlsx
+++ b/Results/Calculation/plsa-partial-ner-glove-money.xlsx
@@ -432,7 +432,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C2">
         <v>221</v>
@@ -441,19 +441,19 @@
         <v>90</v>
       </c>
       <c r="E2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2">
         <v>0.55</v>
       </c>
       <c r="G2">
+        <v>0.7284768211920529</v>
+      </c>
+      <c r="H2">
+        <v>0.6267806267806267</v>
+      </c>
+      <c r="I2">
         <v>0.72</v>
-      </c>
-      <c r="H2">
-        <v>0.62</v>
-      </c>
-      <c r="I2">
-        <v>0.71</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -461,25 +461,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C3">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F3">
-        <v>0.8</v>
+        <v>0.7961165048543689</v>
       </c>
       <c r="G3">
-        <v>0.73</v>
+        <v>0.7557603686635944</v>
       </c>
       <c r="H3">
-        <v>0.76</v>
+        <v>0.7754137115839244</v>
       </c>
       <c r="I3">
         <v>0.79</v>
@@ -490,7 +490,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C4">
         <v>253</v>
@@ -499,16 +499,16 @@
         <v>55</v>
       </c>
       <c r="E4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4">
-        <v>0.7</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="G4">
-        <v>0.85</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H4">
-        <v>0.77</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="I4">
         <v>0.83</v>
@@ -519,28 +519,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C5">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D5">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>0.55</v>
+        <v>0.5392156862745098</v>
       </c>
       <c r="G5">
-        <v>0.86</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="H5">
-        <v>0.67</v>
+        <v>0.6586826347305389</v>
       </c>
       <c r="I5">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
